--- a/second-order/1877/November1877.xlsx
+++ b/second-order/1877/November1877.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1877 not finished\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1877/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14207" documentId="13_ncr:1_{10570E5C-414F-490D-B6F5-15A15B160FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385081CE-9099-459A-BA8D-FD91523D32E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6CD7B-FC1A-7D4F-84D5-C6693F32A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="22" activeTab="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,17 +950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="I26" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="5">
-        <v>29.623999999999999</v>
+        <v>28.623999999999999</v>
       </c>
       <c r="F32" s="6">
         <v>28.741</v>
@@ -2947,7 +2947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3093,13 +3093,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3136,7 +3136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5210,7 +5210,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U35" t="s">
         <v>76</v>
       </c>
@@ -5237,13 +5237,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5280,7 +5280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -7376,13 +7376,13 @@
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -7419,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9493,7 +9493,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q43" t="s">
         <v>31</v>
       </c>
@@ -9518,23 +9518,23 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -9571,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11645,7 +11645,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -11686,13 +11686,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -11729,7 +11729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13823,23 +13823,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -13876,7 +13876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -15950,7 +15950,7 @@
         <v>5.1529999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -15990,13 +15990,13 @@
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -16033,7 +16033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>1.262</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -18129,13 +18129,13 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -18172,7 +18172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20266,28 +20266,28 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N1" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -20324,7 +20324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>91</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>91</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>91</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>91</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>91</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22398,7 +22398,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -22438,13 +22438,13 @@
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -22481,7 +22481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -24577,12 +24577,12 @@
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -24619,7 +24619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24684,7 +24684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -25854,7 +25854,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26715,13 +26715,13 @@
       <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -26758,7 +26758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
@@ -27083,7 +27083,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>93</v>
       </c>
@@ -27148,7 +27148,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
@@ -27213,7 +27213,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
@@ -27538,7 +27538,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -28318,7 +28318,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -28852,23 +28852,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -28905,7 +28905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -28970,7 +28970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -29165,7 +29165,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -29230,7 +29230,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -29425,7 +29425,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -29490,7 +29490,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -29815,7 +29815,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -30075,7 +30075,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -30595,7 +30595,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -30725,7 +30725,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
@@ -30855,7 +30855,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -30920,7 +30920,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30979,7 +30979,7 @@
         <v>4.9160000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -31019,12 +31019,12 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -31061,7 +31061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -31321,7 +31321,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -31581,7 +31581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -31711,7 +31711,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
@@ -31841,7 +31841,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
@@ -31971,7 +31971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
@@ -32101,7 +32101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
@@ -32361,7 +32361,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>95</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -32556,7 +32556,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -32621,7 +32621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
@@ -32751,7 +32751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -32816,7 +32816,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -32881,7 +32881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -32946,7 +32946,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
@@ -33011,7 +33011,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -33154,24 +33154,24 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K26" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -33208,7 +33208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33273,7 +33273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -33338,7 +33338,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -33533,7 +33533,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
@@ -33598,7 +33598,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>101</v>
       </c>
@@ -33663,7 +33663,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
@@ -33728,7 +33728,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -33793,7 +33793,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
@@ -34053,7 +34053,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -34183,7 +34183,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
@@ -34248,7 +34248,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>101</v>
       </c>
@@ -34313,7 +34313,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>101</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
@@ -34443,7 +34443,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
@@ -34508,7 +34508,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>101</v>
       </c>
@@ -34573,7 +34573,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>101</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -34703,7 +34703,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
@@ -34768,7 +34768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
@@ -34833,7 +34833,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>101</v>
       </c>
@@ -34898,7 +34898,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
@@ -34963,7 +34963,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
@@ -35028,7 +35028,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>101</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -35223,7 +35223,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -35282,7 +35282,7 @@
         <v>5.4349999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -35320,23 +35320,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -35373,7 +35373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35438,7 +35438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -35503,7 +35503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -35633,7 +35633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -35698,7 +35698,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -35763,7 +35763,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -35828,7 +35828,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -35893,7 +35893,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -35958,7 +35958,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -36088,7 +36088,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -36153,7 +36153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -36218,7 +36218,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -36283,7 +36283,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -36478,7 +36478,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -36543,7 +36543,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -36608,7 +36608,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -36673,7 +36673,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -36738,7 +36738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -36803,7 +36803,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -36933,7 +36933,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -37193,7 +37193,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -37258,7 +37258,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -37323,7 +37323,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -37388,7 +37388,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -37447,7 +37447,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -37487,13 +37487,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -37530,7 +37530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -37660,7 +37660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -37725,7 +37725,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -37920,7 +37920,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -37985,7 +37985,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -38115,7 +38115,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -38180,7 +38180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -38245,7 +38245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -38310,7 +38310,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -38375,7 +38375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -38440,7 +38440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -38570,7 +38570,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -38635,7 +38635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -38700,7 +38700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -38765,7 +38765,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -38895,7 +38895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -38960,7 +38960,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -39025,7 +39025,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -39220,7 +39220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -39285,7 +39285,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -39350,7 +39350,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -39415,7 +39415,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -39480,7 +39480,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -39545,7 +39545,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -39624,23 +39624,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -39677,7 +39677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39742,7 +39742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -39807,7 +39807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -39937,7 +39937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -40002,7 +40002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -40067,7 +40067,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -40132,7 +40132,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -40197,7 +40197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -40262,7 +40262,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -40392,7 +40392,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -40457,7 +40457,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -40522,7 +40522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -40587,7 +40587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -40652,7 +40652,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -40717,7 +40717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -40782,7 +40782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -40847,7 +40847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -40977,7 +40977,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -41042,7 +41042,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -41107,7 +41107,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -41172,7 +41172,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -41237,7 +41237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -41302,7 +41302,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -41367,7 +41367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -41432,7 +41432,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -41497,7 +41497,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -41562,7 +41562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -41627,7 +41627,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -41692,7 +41692,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -41751,7 +41751,7 @@
         <v>2.7290000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -41789,23 +41789,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -41842,7 +41842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41907,7 +41907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -41972,7 +41972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -42037,7 +42037,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -42102,7 +42102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -42167,7 +42167,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -42232,7 +42232,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -42297,7 +42297,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -42362,7 +42362,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -42427,7 +42427,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -42492,7 +42492,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -42557,7 +42557,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -42622,7 +42622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -42687,7 +42687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -42752,7 +42752,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -42817,7 +42817,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -42882,7 +42882,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -42947,7 +42947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -43012,7 +43012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -43077,7 +43077,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -43142,7 +43142,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -43207,7 +43207,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -43272,7 +43272,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -43337,7 +43337,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -43402,7 +43402,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -43467,7 +43467,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -43532,7 +43532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -43597,7 +43597,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -43662,7 +43662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -43792,7 +43792,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -43857,7 +43857,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -43916,7 +43916,7 @@
         <v>8.2349999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -43933,7 +43933,7 @@
       <c r="T35"/>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J36" s="1" t="s">
         <v>51</v>
       </c>
@@ -43961,13 +43961,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -44004,7 +44004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -44069,7 +44069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -44134,7 +44134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -44199,7 +44199,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -44264,7 +44264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -44329,7 +44329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -44394,7 +44394,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -44459,7 +44459,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -44524,7 +44524,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -44589,7 +44589,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -44654,7 +44654,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -44719,7 +44719,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -44784,7 +44784,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -44849,7 +44849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -44914,7 +44914,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -44979,7 +44979,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -45044,7 +45044,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -45109,7 +45109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -45174,7 +45174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -45239,7 +45239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -45304,7 +45304,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -45369,7 +45369,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -45434,7 +45434,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -45499,7 +45499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -45564,7 +45564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -45629,7 +45629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -45694,7 +45694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -45759,7 +45759,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -45824,7 +45824,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -45889,7 +45889,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -46019,7 +46019,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -46100,13 +46100,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -46143,7 +46143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -46208,7 +46208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -46273,7 +46273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -46338,7 +46338,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -46403,7 +46403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -46468,7 +46468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -46533,7 +46533,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -46598,7 +46598,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -46663,7 +46663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -46793,7 +46793,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -46923,7 +46923,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -46988,7 +46988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -47053,7 +47053,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -47118,7 +47118,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -47183,7 +47183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -47248,7 +47248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -47313,7 +47313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -47378,7 +47378,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -47508,7 +47508,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -47573,7 +47573,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -47638,7 +47638,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -47703,7 +47703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -47768,7 +47768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -47833,7 +47833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -47898,7 +47898,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -48093,7 +48093,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -48158,7 +48158,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -48237,23 +48237,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -48290,7 +48290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -48355,7 +48355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -48420,7 +48420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -48485,7 +48485,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -48550,7 +48550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -48615,7 +48615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -48745,7 +48745,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -48810,7 +48810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -49005,7 +49005,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -49070,7 +49070,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -49135,7 +49135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -49330,7 +49330,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -49395,7 +49395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -49460,7 +49460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -49525,7 +49525,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -49590,7 +49590,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -49655,7 +49655,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -49720,7 +49720,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -49785,7 +49785,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -49850,7 +49850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -49915,7 +49915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -49980,7 +49980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -50045,7 +50045,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -50110,7 +50110,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -50175,7 +50175,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -50240,7 +50240,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -50305,7 +50305,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50364,7 +50364,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -50397,35 +50397,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33279</Url>
-      <Description>H7Q62YT2XCZT-908671883-33279</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -50473,6 +50444,35 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33279</Url>
+      <Description>H7Q62YT2XCZT-908671883-33279</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50783,17 +50783,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF1D8-F4A1-47A7-86AB-4D0F926643BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF1D8-F4A1-47A7-86AB-4D0F926643BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D99F003-CB79-49EE-AD1D-D4C64CB27BED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D99F003-CB79-49EE-AD1D-D4C64CB27BED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>